--- a/archivos/Cadenas de Markov.xlsx
+++ b/archivos/Cadenas de Markov.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lasallistasorg-my.sharepoint.com/personal/arturocasillas_lasallistas_org_mx/Documents/La Salle/Septimo semestre/Modelos Determinísticos y Estocasticos/Estadistica/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\La Salle\CV\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{BBF4B243-7920-4201-8486-893DEE4C0236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0B1473AF-D5B2-40DA-9FC1-90D060062A80}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958FAD74-DFF9-4C79-8224-87AC8F8B4D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{A85A105C-80EF-4AA0-A974-167B660CCD34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A85A105C-80EF-4AA0-A974-167B660CCD34}"/>
   </bookViews>
   <sheets>
     <sheet name="Iteraciones" sheetId="1" r:id="rId1"/>
-    <sheet name="distribucion estacionaria" sheetId="2" r:id="rId2"/>
+    <sheet name="2" sheetId="3" r:id="rId2"/>
+    <sheet name="distribucion estacionaria" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
   <si>
     <t>Cadenas de markov</t>
   </si>
@@ -280,9 +281,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -293,9 +291,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -317,6 +312,12 @@
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -339,6 +340,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>294884</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>518621</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D83DCC4B-990D-44E8-97D3-D1F440D076EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4455404" y="1005840"/>
+          <a:ext cx="6563577" cy="2651760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -703,551 +753,551 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D368527-E8C1-4FFA-838A-21EC949ED3CA}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="3" customWidth="1"/>
     <col min="5" max="5" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E3" s="4"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>0.8</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>0.1</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>0.1</v>
       </c>
-      <c r="E5" s="10" t="str">
+      <c r="E5" s="8" t="str">
         <f>_xlfn.CONCAT("=", SUM(B5:D5))</f>
         <v>=1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>0.03</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>0.95</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>0.02</v>
       </c>
-      <c r="E6" s="10" t="str">
+      <c r="E6" s="8" t="str">
         <f t="shared" ref="E6:E33" si="0">_xlfn.CONCAT("=", SUM(B6:D6))</f>
         <v>=1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>0.2</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>0.05</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>0.75</v>
       </c>
-      <c r="E7" s="10" t="str">
+      <c r="E7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="10"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="10"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>0.45</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="15">
         <v>0.25</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <v>0.3</v>
       </c>
-      <c r="E10" s="10" t="str">
+      <c r="E10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=1</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="10"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="10"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="17">
         <f>B10</f>
         <v>0.45</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="17">
         <f t="shared" ref="C13:D13" si="1">C10</f>
         <v>0.25</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="17">
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
-      <c r="E13" s="10" t="str">
+      <c r="E13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="19" cm="1">
+      <c r="B14" s="17" cm="1">
         <f t="array" ref="B14:D14">MMULT(B13:D13,$B$5:$D$7)</f>
         <v>0.42750000000000005</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="17">
         <v>0.29749999999999999</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="17">
         <v>0.27499999999999997</v>
       </c>
-      <c r="E14" s="10" t="str">
+      <c r="E14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="19" cm="1">
+      <c r="B15" s="17" cm="1">
         <f t="array" ref="B15:D15">MMULT(B14:D14,$B$5:$D$7)</f>
         <v>0.40592500000000009</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="17">
         <v>0.33912499999999995</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="17">
         <v>0.25495000000000001</v>
       </c>
-      <c r="E15" s="10" t="str">
+      <c r="E15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="19" cm="1">
+      <c r="B16" s="17" cm="1">
         <f t="array" ref="B16:D16">MMULT(B15:D15,$B$5:$D$7)</f>
         <v>0.3859037500000001</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="17">
         <v>0.37550875</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="17">
         <v>0.23858750000000001</v>
       </c>
-      <c r="E16" s="10" t="str">
+      <c r="E16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=1</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="19" cm="1">
+      <c r="B17" s="17" cm="1">
         <f t="array" ref="B17:D17">MMULT(B16:D16,$B$5:$D$7)</f>
         <v>0.36770576250000009</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="17">
         <v>0.40725306250000004</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="17">
         <v>0.22504117500000004</v>
       </c>
-      <c r="E17" s="10" t="str">
+      <c r="E17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=1</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="19" cm="1">
+      <c r="B18" s="17" cm="1">
         <f t="array" ref="B18:D18">MMULT(B17:D17,$B$5:$D$7)</f>
         <v>0.3513904368750001</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="17">
         <v>0.43491304437500006</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="17">
         <v>0.21369651875000004</v>
       </c>
-      <c r="E18" s="10" t="str">
+      <c r="E18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=1</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="19" cm="1">
+      <c r="B19" s="17" cm="1">
         <f t="array" ref="B19:D19">MMULT(B18:D18,$B$5:$D$7)</f>
         <v>0.33689904458125008</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="17">
         <v>0.45899126178125005</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="17">
         <v>0.20410969363750003</v>
       </c>
-      <c r="E19" s="10" t="str">
+      <c r="E19" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=1</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="19" cm="1">
+      <c r="B20" s="17" cm="1">
         <f t="array" ref="B20:D20">MMULT(B19:D19,$B$5:$D$7)</f>
         <v>0.32411091224593758</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="17">
         <v>0.47993708783218753</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="17">
         <v>0.19595199992187506</v>
       </c>
-      <c r="E20" s="10" t="str">
+      <c r="E20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=1</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="19" cm="1">
+      <c r="B21" s="17" cm="1">
         <f t="array" ref="B21:D21">MMULT(B20:D20,$B$5:$D$7)</f>
         <v>0.31287724241609066</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="17">
         <v>0.49814892466126559</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="17">
         <v>0.1889738329226438</v>
       </c>
-      <c r="E21" s="10" t="str">
+      <c r="E21" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=1</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="19" cm="1">
+      <c r="B22" s="17" cm="1">
         <f t="array" ref="B22:D22">MMULT(B21:D21,$B$5:$D$7)</f>
         <v>0.30304102825723933</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="17">
         <v>0.51397789431594354</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="17">
         <v>0.18298107742681724</v>
       </c>
-      <c r="E22" s="10" t="str">
+      <c r="E22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=1</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="19" cm="1">
+      <c r="B23" s="17" cm="1">
         <f t="array" ref="B23:D23">MMULT(B22:D22,$B$5:$D$7)</f>
         <v>0.29444837492063325</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="17">
         <v>0.52773215629721115</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="17">
         <v>0.17781946878215574</v>
       </c>
-      <c r="E23" s="10" t="str">
+      <c r="E23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=1</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="19" cm="1">
+      <c r="B24" s="17" cm="1">
         <f t="array" ref="B24:D24">MMULT(B23:D23,$B$5:$D$7)</f>
         <v>0.28695455838185407</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="17">
         <v>0.53968135941352169</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="17">
         <v>0.17336408220462435</v>
       </c>
-      <c r="E24" s="10" t="str">
+      <c r="E24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=1</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="19" cm="1">
+      <c r="B25" s="17" cm="1">
         <f t="array" ref="B25:D25">MMULT(B24:D24,$B$5:$D$7)</f>
         <v>0.28042690392881375</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="17">
         <v>0.55006095139126221</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="17">
         <v>0.16951214467992412</v>
       </c>
-      <c r="E25" s="10" t="str">
+      <c r="E25" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=1</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="19" cm="1">
+      <c r="B26" s="17" cm="1">
         <f t="array" ref="B26:D26">MMULT(B25:D25,$B$5:$D$7)</f>
         <v>0.27474578062077371</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="17">
         <v>0.55907620144857662</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="17">
         <v>0.16617801793064971</v>
       </c>
-      <c r="E26" s="10" t="str">
+      <c r="E26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=1</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="19" cm="1">
+      <c r="B27" s="17" cm="1">
         <f t="array" ref="B27:D27">MMULT(B26:D26,$B$5:$D$7)</f>
         <v>0.26980451412620621</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="17">
         <v>0.56690587033475759</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="17">
         <v>0.1632896155390362</v>
       </c>
-      <c r="E27" s="10" t="str">
+      <c r="E27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=1</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="19" cm="1">
+      <c r="B28" s="17" cm="1">
         <f t="array" ref="B28:D28">MMULT(B27:D27,$B$5:$D$7)</f>
         <v>0.26550871051881497</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="17">
         <v>0.57370550900759221</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="17">
         <v>0.16078578047359293</v>
       </c>
-      <c r="E28" s="10" t="str">
+      <c r="E28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=1</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="19" cm="1">
+      <c r="B29" s="17" cm="1">
         <f t="array" ref="B29:D29">MMULT(B28:D28,$B$5:$D$7)</f>
         <v>0.26177528977999831</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="17">
         <v>0.57961039363277367</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="17">
         <v>0.15861431658722805</v>
       </c>
-      <c r="E29" s="10" t="str">
+      <c r="E29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=1</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="19" cm="1">
+      <c r="B30" s="17" cm="1">
         <f t="array" ref="B30:D30">MMULT(B29:D29,$B$5:$D$7)</f>
         <v>0.25853140695042748</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="17">
         <v>0.58473811875849624</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="17">
         <v>0.15673047429107634</v>
       </c>
-      <c r="E30" s="10" t="str">
+      <c r="E30" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=1</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="19" cm="1">
+      <c r="B31" s="17" cm="1">
         <f t="array" ref="B31:D31">MMULT(B30:D30,$B$5:$D$7)</f>
         <v>0.25571336398131217</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="17">
         <v>0.58919087723016794</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="17">
         <v>0.15509575878851994</v>
       </c>
-      <c r="E31" s="10" t="str">
+      <c r="E31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=1</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="19" cm="1">
+      <c r="B32" s="17" cm="1">
         <f t="array" ref="B32:D32">MMULT(B31:D31,$B$5:$D$7)</f>
         <v>0.25326556925965876</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="17">
         <v>0.59305745770621676</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="17">
         <v>0.15367697303412453</v>
       </c>
-      <c r="E32" s="10" t="str">
+      <c r="E32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=1</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="19" cm="1">
+      <c r="B33" s="17" cm="1">
         <f t="array" ref="B33:D33">MMULT(B32:D32,$B$5:$D$7)</f>
         <v>0.25113957374573842</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="17">
         <v>0.59641499039857804</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="17">
         <v>0.1524454358556836</v>
       </c>
-      <c r="E33" s="10" t="str">
+      <c r="E33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>=1</v>
       </c>
@@ -1263,10 +1313,573 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F717CCD-5B97-463B-A4C1-127BA04B9962}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="8" t="str">
+        <f>_xlfn.CONCAT("=", SUM(B5:D5))</f>
+        <v>=1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="8" t="str">
+        <f t="shared" ref="E6:E33" si="0">_xlfn.CONCAT("=", SUM(B6:D6))</f>
+        <v>=1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>=1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>=1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="17">
+        <f>B10</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="17">
+        <f t="shared" ref="C13:D13" si="1">C10</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>=1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="17" cm="1">
+        <f t="array" ref="B14:D14">MMULT(B13:D13,$B$5:$D$7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>=1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="17" cm="1">
+        <f t="array" ref="B15:D15">MMULT(B14:D14,$B$5:$D$7)</f>
+        <v>0.49</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="E15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>=1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="17" cm="1">
+        <f t="array" ref="B16:D16">MMULT(B15:D15,$B$5:$D$7)</f>
+        <v>0.44699999999999995</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.20199999999999999</v>
+      </c>
+      <c r="E16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>=1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="17" cm="1">
+        <f t="array" ref="B17:D17">MMULT(B16:D16,$B$5:$D$7)</f>
+        <v>0.42879999999999996</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.35529999999999995</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.21589999999999998</v>
+      </c>
+      <c r="E17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>=1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="17" cm="1">
+        <f t="array" ref="B18:D18">MMULT(B17:D17,$B$5:$D$7)</f>
+        <v>0.42098999999999998</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0.35711999999999999</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0.22188999999999998</v>
+      </c>
+      <c r="E18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>=1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="17" cm="1">
+        <f t="array" ref="B19:D19">MMULT(B18:D18,$B$5:$D$7)</f>
+        <v>0.41763099999999997</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0.35790099999999997</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0.224468</v>
+      </c>
+      <c r="E19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>=1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="17" cm="1">
+        <f t="array" ref="B20:D20">MMULT(B19:D19,$B$5:$D$7)</f>
+        <v>0.41618579999999994</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0.35823690000000002</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0.22557729999999998</v>
+      </c>
+      <c r="E20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>=1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="17" cm="1">
+        <f t="array" ref="B21:D21">MMULT(B20:D20,$B$5:$D$7)</f>
+        <v>0.41556396999999995</v>
+      </c>
+      <c r="C21" s="17">
+        <v>0.35838142000000001</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.22605460999999999</v>
+      </c>
+      <c r="E21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>=1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="17" cm="1">
+        <f t="array" ref="B22:D22">MMULT(B21:D21,$B$5:$D$7)</f>
+        <v>0.41529641099999998</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0.358443603</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0.226259986</v>
+      </c>
+      <c r="E22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>=1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="17" cm="1">
+        <f t="array" ref="B23:D23">MMULT(B22:D22,$B$5:$D$7)</f>
+        <v>0.41518128639999996</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0.35847035890000001</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0.2263483547</v>
+      </c>
+      <c r="E23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>=1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="17" cm="1">
+        <f t="array" ref="B24:D24">MMULT(B23:D23,$B$5:$D$7)</f>
+        <v>0.41513175086999998</v>
+      </c>
+      <c r="C24" s="17">
+        <v>0.35848187135999998</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0.22638637777000001</v>
+      </c>
+      <c r="E24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>=1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="17" cm="1">
+        <f t="array" ref="B25:D25">MMULT(B24:D24,$B$5:$D$7)</f>
+        <v>0.41511043684299992</v>
+      </c>
+      <c r="C25" s="17">
+        <v>0.35848682491299999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>0.22640273824400001</v>
+      </c>
+      <c r="E25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>=1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="17" cm="1">
+        <f t="array" ref="B26:D26">MMULT(B25:D25,$B$5:$D$7)</f>
+        <v>0.41510126589539992</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0.35848895631569999</v>
+      </c>
+      <c r="D26" s="17">
+        <v>0.22640977778889998</v>
+      </c>
+      <c r="E26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>=1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="17" cm="1">
+        <f t="array" ref="B27:D27">MMULT(B26:D26,$B$5:$D$7)</f>
+        <v>0.41509731984241</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0.35848987341045996</v>
+      </c>
+      <c r="D27" s="17">
+        <v>0.22641280674712999</v>
+      </c>
+      <c r="E27" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>=1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="17" cm="1">
+        <f t="array" ref="B28:D28">MMULT(B27:D27,$B$5:$D$7)</f>
+        <v>0.41509562194434296</v>
+      </c>
+      <c r="C28" s="17">
+        <v>0.35849026801575901</v>
+      </c>
+      <c r="D28" s="17">
+        <v>0.22641411003989798</v>
+      </c>
+      <c r="E28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>=1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="17" cm="1">
+        <f t="array" ref="B29:D29">MMULT(B28:D28,$B$5:$D$7)</f>
+        <v>0.4150948913768992</v>
+      </c>
+      <c r="C29" s="17">
+        <v>0.35849043780556566</v>
+      </c>
+      <c r="D29" s="17">
+        <v>0.22641467081753508</v>
+      </c>
+      <c r="E29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>=1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="17" cm="1">
+        <f t="array" ref="B30:D30">MMULT(B29:D29,$B$5:$D$7)</f>
+        <v>0.41509457703011932</v>
+      </c>
+      <c r="C30" s="17">
+        <v>0.35849051086231004</v>
+      </c>
+      <c r="D30" s="17">
+        <v>0.22641491210757059</v>
+      </c>
+      <c r="E30" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>=1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="17" cm="1">
+        <f t="array" ref="B31:D31">MMULT(B30:D30,$B$5:$D$7)</f>
+        <v>0.41509444177375265</v>
+      </c>
+      <c r="C31" s="17">
+        <v>0.35849054229698807</v>
+      </c>
+      <c r="D31" s="17">
+        <v>0.22641501592925925</v>
+      </c>
+      <c r="E31" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>=1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="17" cm="1">
+        <f t="array" ref="B32:D32">MMULT(B31:D31,$B$5:$D$7)</f>
+        <v>0.41509438357597278</v>
+      </c>
+      <c r="C32" s="17">
+        <v>0.35849055582262473</v>
+      </c>
+      <c r="D32" s="17">
+        <v>0.22641506060140248</v>
+      </c>
+      <c r="E32" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>=1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="17" cm="1">
+        <f t="array" ref="B33:D33">MMULT(B32:D32,$B$5:$D$7)</f>
+        <v>0.41509435853477383</v>
+      </c>
+      <c r="C33" s="17">
+        <v>0.35849056164240273</v>
+      </c>
+      <c r="D33" s="17">
+        <v>0.22641507982282347</v>
+      </c>
+      <c r="E33" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>=1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A737A488-CF23-4590-945A-2A7DA6D5CAAA}">
   <dimension ref="B3:S123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1289,34 +1902,34 @@
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="20" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
       <c r="L3" s="20" t="s">
         <v>8</v>
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
       <c r="Q3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="R3" s="20"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1324,13 +1937,13 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.8</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0.1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>0.1</v>
       </c>
       <c r="G5" s="1">
@@ -1372,13 +1985,13 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.03</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0.95</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.02</v>
       </c>
       <c r="G6" s="1">
@@ -1386,7 +1999,7 @@
         <v>0.1</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" ref="H6:H7" si="0">D6</f>
+        <f t="shared" ref="H6" si="0">D6</f>
         <v>0.95</v>
       </c>
       <c r="I6" s="1">
@@ -1419,13 +2032,13 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>0.05</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.75</v>
       </c>
       <c r="G7" s="1">

--- a/archivos/Cadenas de Markov.xlsx
+++ b/archivos/Cadenas de Markov.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\La Salle\CV\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958FAD74-DFF9-4C79-8224-87AC8F8B4D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDC1158-69B9-424B-8B01-2D525344FC60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A85A105C-80EF-4AA0-A974-167B660CCD34}"/>
+    <workbookView minimized="1" xWindow="4848" yWindow="1368" windowWidth="17280" windowHeight="8976" xr2:uid="{A85A105C-80EF-4AA0-A974-167B660CCD34}"/>
   </bookViews>
   <sheets>
     <sheet name="Iteraciones" sheetId="1" r:id="rId1"/>
@@ -392,16 +392,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -431,7 +431,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8793480" y="1920240"/>
+          <a:off x="8854440" y="2004060"/>
           <a:ext cx="3017520" cy="487680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1317,7 +1317,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1880,7 +1880,7 @@
   <dimension ref="B3:S123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
